--- a/biology/Botanique/Utiel-Requena/Utiel-Requena.xlsx
+++ b/biology/Botanique/Utiel-Requena/Utiel-Requena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zone vinicole d'appellation d'origine contrôlée (DO) (depuis septembre 1932), située à l'Ouest de la province de Valence (Espagne), les 9 municipalités qui la forment sont Camporrobles, Caudete de las Fuentes, Fuenterrobles, Siete Aguas, Sinarcas, Utiel, Requena, Venta del Moro, et Villargordo del Cabriel. Le siège de D.O. se trouve dans l'édifice emblématique de 1891, la Bodega Redonda à la ville d'Utiel. La municipalité de Requena fait partie de la zone d'appellation "Cava" d'Espagne.
 Arrosée par le Magro et le Caballero, la zone a une extension de 40 942 ha et occupe 7 000 familles et plus de 100 caves inscrites. Le vin est le principal moteur de l'économie de cette région.
@@ -515,7 +527,9 @@
           <t>L'environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Utiel-Requena est une comarque à identité géographique homogène -située sur un plateau de 45 kilomètres de diamètre- et des caractères climatiques communs. Elle s'étend sur plus de 1 800 km2, avec une altitude moyenne de 700 mètres. Dans la zone arrosée par le Magro les sols se composent d'alluvions et de l'autre côté, dans la Sierra de Torrubia ce sont des sols argileux. Le climat est continental à influence méditerranéenne, la température moyenne annuelle est de 14 °C, avec un écart annuel de plus de 17 °C, ce qui explique le caractère continental du climat d'Utiel-Requena. Le mois le plus chaud est juillet, 23,2 °C de moyenne face à 6 °C en décembre. Les hivers sont froids et longs. L'été est relativement court et parfois le vent de l'Ouest augmente les températures. L'Automne est court et les températures subissent de fortes baisses. Les précipitations sont de 484 mm par an.
 </t>
@@ -546,7 +560,9 @@
           <t>Les vins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La DO Utiel-Requena est une région de vins rouges, 94,27 % de la surface du vignoble est occupée par des cépages rouges. Les variétés blanches représentent, 5,73 % du vignoble d'Utiel-Requena.
 Les sortes de vins reconnus par le Conseil Régulateur de la Denominación de Origen Utiel-Requena sont les suivantes, selon leur vieillissement:
@@ -580,7 +596,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rouges : Bobal (variété autochtone), Cabernet Sauvignon, Merlot, Chardonnay, Tempranillo, Grenache, Merseguera, Tardana ou Planta Nova (variété autochtone).
 Blancs : Macabeu, Sauvignon blanc, Pinot Noir (ce dernier autorisé en Février 2007)</t>
@@ -611,7 +629,9 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1987 Très Bonne
 1988 Bonne
@@ -662,22 +682,24 @@
           <t>Caves</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Quelques caves de la D.O. :
-Bodega Aranleón [1]
-Bodega Mas de Bazán  [2]
+Bodega Aranleón 
+Bodega Mas de Bazán  
 Bodega Noble
-Bodegas Fuso [3]
+Bodegas Fuso 
 Bodegas Hispano Suizas SL
-Bodegas Iranzo [4]
+Bodegas Iranzo 
 Bodegas y viñedos de Utiel SL
 Casa del Pinar
 Chozas Carrascal SL
-Coviñas; Coop. V. [5]
-Dominio de la Vega [6]
-Finca San Blas [7]
-Torre Oria [8]
+Coviñas; Coop. V. 
+Dominio de la Vega 
+Finca San Blas 
+Torre Oria 
 Hoya de Cadenas
 Torroja
 Pago de Tharsys
